--- a/datos.xlsx
+++ b/datos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mika</t>
+          <t>test</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -453,19 +453,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>456</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>TEST</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
     </row>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -50,7 +49,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,13 +412,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col width="11.85546875" bestFit="1" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -432,28 +434,43 @@
           <t>Edad</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Rut</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>Mika</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>11.111.111-1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>mika</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>11.111.111-1</t>
         </is>
       </c>
     </row>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,23 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>kxczkxzjc</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0232193120</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>JKXCJKXZ</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,6 +491,62 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>pedro</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1111111-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>pedro</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1111111-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>dona</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>12312312</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>no binario</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
